--- a/Timekeeping/2024/06-24/CHAMBARD L 06-24.xlsx
+++ b/Timekeeping/2024/06-24/CHAMBARD L 06-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\06-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\353-final-project\Timekeeping\2024\06-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A00CE7C-4F8B-45BB-B0B4-69DE7E5EAC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338115B3-1C49-4E26-A982-334AD12F5FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31530" yWindow="5460" windowWidth="28800" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="3740" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$AJ$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -245,9 +258,6 @@
     <t>Lumion L&amp;L Preparation and Presentaion</t>
   </si>
   <si>
-    <t>May 2024</t>
-  </si>
-  <si>
     <t>2404</t>
   </si>
   <si>
@@ -258,6 +268,9 @@
   </si>
   <si>
     <t>Ledcor Mt Seymour Pkwy</t>
+  </si>
+  <si>
+    <t>June 2024</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1215,23 +1228,23 @@
   </sheetPr>
   <dimension ref="A1:GH92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="73" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="73" customWidth="1"/>
     <col min="3" max="3" width="5" style="75" customWidth="1"/>
-    <col min="4" max="34" width="3.42578125" style="74" customWidth="1"/>
-    <col min="35" max="35" width="5.7109375" style="76" customWidth="1"/>
-    <col min="36" max="36" width="40.7109375" style="74" customWidth="1"/>
-    <col min="37" max="190" width="7.5703125" style="11" customWidth="1"/>
-    <col min="191" max="16384" width="7.5703125" style="11"/>
+    <col min="4" max="34" width="3.453125" style="74" customWidth="1"/>
+    <col min="35" max="35" width="5.7265625" style="76" customWidth="1"/>
+    <col min="36" max="36" width="40.7265625" style="74" customWidth="1"/>
+    <col min="37" max="190" width="7.54296875" style="11" customWidth="1"/>
+    <col min="191" max="16384" width="7.54296875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1302,7 +1315,7 @@
       <c r="BP1" s="3"/>
       <c r="BQ1" s="3"/>
     </row>
-    <row r="2" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1373,7 +1386,7 @@
       <c r="BP2" s="3"/>
       <c r="BQ2" s="3"/>
     </row>
-    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1416,7 +1429,7 @@
       <c r="AH3" s="8"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="77" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
@@ -1452,7 +1465,7 @@
       <c r="BP3" s="3"/>
       <c r="BQ3" s="3"/>
     </row>
-    <row r="4" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1523,7 +1536,7 @@
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
     </row>
-    <row r="5" spans="1:190" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:190" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1979,7 +1992,7 @@
       <c r="GG6" s="11"/>
       <c r="GH6" s="11"/>
     </row>
-    <row r="7" spans="1:190" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:190" ht="10.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28" t="s">
@@ -2112,7 +2125,7 @@
       <c r="BP7" s="3"/>
       <c r="BQ7" s="3"/>
     </row>
-    <row r="8" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34"/>
@@ -2308,7 +2321,7 @@
       <c r="BP9" s="3"/>
       <c r="BQ9" s="3"/>
     </row>
-    <row r="10" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="34"/>
@@ -2402,12 +2415,12 @@
       <c r="BP10" s="3"/>
       <c r="BQ10" s="3"/>
     </row>
-    <row r="11" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>77</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>24</v>
@@ -2508,7 +2521,7 @@
       <c r="BP11" s="3"/>
       <c r="BQ11" s="3"/>
     </row>
-    <row r="12" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
@@ -2602,7 +2615,7 @@
       <c r="BP12" s="3"/>
       <c r="BQ12" s="3"/>
     </row>
-    <row r="13" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>51</v>
       </c>
@@ -2704,7 +2717,7 @@
       <c r="BP13" s="3"/>
       <c r="BQ13" s="3"/>
     </row>
-    <row r="14" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
@@ -3023,7 +3036,7 @@
       <c r="GG15" s="11"/>
       <c r="GH15" s="11"/>
     </row>
-    <row r="16" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:190" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -4909,10 +4922,10 @@
     </row>
     <row r="25" spans="1:190" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="35" t="s">
@@ -5347,7 +5360,7 @@
       <c r="GG26" s="11"/>
       <c r="GH26" s="11"/>
     </row>
-    <row r="27" spans="1:190" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:190" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="47" t="s">
         <v>6</v>
@@ -5637,7 +5650,7 @@
       <c r="GG27" s="11"/>
       <c r="GH27" s="11"/>
     </row>
-    <row r="28" spans="1:190" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:190" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>7</v>
       </c>
@@ -5834,7 +5847,7 @@
       <c r="GG28" s="38"/>
       <c r="GH28" s="38"/>
     </row>
-    <row r="29" spans="1:190" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:190" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>14</v>
       </c>
@@ -6035,7 +6048,7 @@
       <c r="GG29" s="38"/>
       <c r="GH29" s="38"/>
     </row>
-    <row r="30" spans="1:190" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:190" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>8</v>
       </c>
@@ -6232,7 +6245,7 @@
       <c r="GG30" s="11"/>
       <c r="GH30" s="11"/>
     </row>
-    <row r="31" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>22</v>
       </c>
@@ -6308,7 +6321,7 @@
       <c r="BP31" s="3"/>
       <c r="BQ31" s="3"/>
     </row>
-    <row r="32" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>37</v>
       </c>
@@ -6381,7 +6394,7 @@
       <c r="BP32" s="3"/>
       <c r="BQ32" s="3"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>12</v>
       </c>
@@ -6457,7 +6470,7 @@
       <c r="BP33" s="3"/>
       <c r="BQ33" s="3"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>13</v>
       </c>
@@ -6535,7 +6548,7 @@
       <c r="BP34" s="3"/>
       <c r="BQ34" s="3"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>39</v>
       </c>
@@ -6613,7 +6626,7 @@
       <c r="BP35" s="3"/>
       <c r="BQ35" s="3"/>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>39</v>
       </c>
@@ -6691,7 +6704,7 @@
       <c r="BP36" s="3"/>
       <c r="BQ36" s="3"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>39</v>
       </c>
@@ -6771,7 +6784,7 @@
       <c r="BP37" s="3"/>
       <c r="BQ37" s="3"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>39</v>
       </c>
@@ -6847,7 +6860,7 @@
       <c r="BP38" s="3"/>
       <c r="BQ38" s="3"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>9</v>
       </c>
@@ -7016,7 +7029,7 @@
       <c r="BP39" s="3"/>
       <c r="BQ39" s="3"/>
     </row>
-    <row r="40" spans="1:69" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="58" t="s">
         <v>10</v>
       </c>
@@ -7057,7 +7070,7 @@
       <c r="AJ40" s="62"/>
       <c r="AZ40" s="4"/>
     </row>
-    <row r="41" spans="1:69" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" s="3" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
         <v>60</v>
       </c>
@@ -7111,7 +7124,7 @@
       <c r="AJ41" s="62"/>
       <c r="AZ41" s="4"/>
     </row>
-    <row r="42" spans="1:69" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A42" s="63" t="s">
         <v>24</v>
       </c>
@@ -7157,7 +7170,7 @@
       <c r="AJ42" s="62"/>
       <c r="AZ42" s="4"/>
     </row>
-    <row r="43" spans="1:69" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
         <v>64</v>
       </c>
@@ -7210,7 +7223,7 @@
       </c>
       <c r="AZ43" s="4"/>
     </row>
-    <row r="44" spans="1:69" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A44" s="60" t="s">
         <v>23</v>
       </c>
@@ -7255,7 +7268,7 @@
       <c r="AI44" s="61"/>
       <c r="AJ44" s="62"/>
     </row>
-    <row r="45" spans="1:69" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A45" s="62" t="s">
         <v>27</v>
       </c>
@@ -7305,7 +7318,7 @@
       </c>
       <c r="AJ45" s="62"/>
     </row>
-    <row r="46" spans="1:69" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:69" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A46" s="62"/>
       <c r="B46" s="62"/>
       <c r="C46" s="62"/>
@@ -7342,7 +7355,7 @@
       <c r="AI46" s="68"/>
       <c r="AJ46" s="62"/>
     </row>
-    <row r="47" spans="1:69" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="71"/>
       <c r="B47" s="71"/>
       <c r="C47" s="71"/>
@@ -7384,7 +7397,7 @@
       </c>
       <c r="AJ47" s="62"/>
     </row>
-    <row r="48" spans="1:69" s="3" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" s="3" customFormat="1" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="71"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
@@ -7422,7 +7435,7 @@
       <c r="AI48" s="62"/>
       <c r="AJ48" s="62"/>
     </row>
-    <row r="49" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="71"/>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
@@ -7460,7 +7473,7 @@
       <c r="AI49" s="62"/>
       <c r="AJ49" s="62"/>
     </row>
-    <row r="50" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="71"/>
       <c r="B50" s="71"/>
       <c r="C50" s="71"/>
@@ -7498,7 +7511,7 @@
       <c r="AI50" s="62"/>
       <c r="AJ50" s="62"/>
     </row>
-    <row r="51" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="71"/>
       <c r="B51" s="71"/>
       <c r="C51" s="71"/>
@@ -7536,167 +7549,167 @@
       <c r="AI51" s="62"/>
       <c r="AJ51" s="62"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C52" s="73"/>
       <c r="AI52" s="74"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C53" s="73"/>
       <c r="AI53" s="74"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C54" s="73"/>
       <c r="AI54" s="74"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C55" s="73"/>
       <c r="AI55" s="74"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C56" s="73"/>
       <c r="AI56" s="74"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C57" s="73"/>
       <c r="AI57" s="74"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C58" s="73"/>
       <c r="AI58" s="74"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C59" s="73"/>
       <c r="AI59" s="74"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C60" s="73"/>
       <c r="AI60" s="74"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C61" s="73"/>
       <c r="AI61" s="74"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C62" s="73"/>
       <c r="AI62" s="74"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C63" s="73"/>
       <c r="AI63" s="74"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C64" s="73"/>
       <c r="AI64" s="74"/>
     </row>
-    <row r="65" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C65" s="73"/>
       <c r="AI65" s="74"/>
     </row>
-    <row r="66" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C66" s="73"/>
       <c r="AI66" s="74"/>
     </row>
-    <row r="67" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C67" s="73"/>
       <c r="AI67" s="74"/>
     </row>
-    <row r="68" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C68" s="73"/>
       <c r="AI68" s="74"/>
     </row>
-    <row r="69" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C69" s="73"/>
       <c r="AI69" s="74"/>
     </row>
-    <row r="70" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C70" s="73"/>
       <c r="AI70" s="74"/>
     </row>
-    <row r="71" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C71" s="73"/>
       <c r="AI71" s="74"/>
     </row>
-    <row r="72" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C72" s="73"/>
       <c r="AI72" s="74"/>
     </row>
-    <row r="73" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C73" s="73"/>
       <c r="AI73" s="74"/>
     </row>
-    <row r="74" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C74" s="73"/>
       <c r="AI74" s="74"/>
     </row>
-    <row r="75" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C75" s="73"/>
       <c r="AI75" s="74"/>
     </row>
-    <row r="76" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C76" s="73"/>
       <c r="AI76" s="74"/>
     </row>
-    <row r="77" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C77" s="73"/>
       <c r="AI77" s="74"/>
     </row>
-    <row r="78" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C78" s="73"/>
       <c r="AI78" s="74"/>
     </row>
-    <row r="79" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C79" s="73"/>
       <c r="AI79" s="74"/>
     </row>
-    <row r="80" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C80" s="73"/>
       <c r="AI80" s="74"/>
     </row>
-    <row r="81" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C81" s="73"/>
       <c r="AI81" s="74"/>
     </row>
-    <row r="82" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C82" s="73"/>
       <c r="AI82" s="74"/>
     </row>
-    <row r="83" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C83" s="73"/>
       <c r="AI83" s="74"/>
     </row>
-    <row r="84" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C84" s="73"/>
       <c r="AI84" s="74"/>
     </row>
-    <row r="85" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C85" s="73"/>
       <c r="AI85" s="74"/>
     </row>
-    <row r="86" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C86" s="73"/>
       <c r="AI86" s="74"/>
     </row>
-    <row r="87" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C87" s="73"/>
       <c r="AI87" s="74"/>
     </row>
-    <row r="88" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C88" s="73"/>
       <c r="AI88" s="74"/>
     </row>
-    <row r="89" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C89" s="73"/>
       <c r="AI89" s="74"/>
     </row>
-    <row r="90" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C90" s="73"/>
       <c r="AI90" s="74"/>
     </row>
-    <row r="91" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C91" s="73"/>
       <c r="AI91" s="74"/>
     </row>
-    <row r="92" spans="3:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C92" s="73"/>
       <c r="AI92" s="74"/>
     </row>
